--- a/outputs-HGR-r202/g__CAG-1427.xlsx
+++ b/outputs-HGR-r202/g__CAG-1427.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,115 +442,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__CAG-1427 sp000431675</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__CAG-1427 sp000431675</t>
+          <t>2-s__CAG-1427 sp000434775</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__CAG-1427 sp000434775</t>
+          <t>3-s__CAG-1427 sp000435475</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__CAG-1427 sp000435475</t>
+          <t>4-s__CAG-1427 sp000435675</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__CAG-1427 sp000435675</t>
+          <t>5-s__CAG-1427 sp000436075</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__CAG-1427 sp000436075</t>
+          <t>6-s__CAG-1427 sp900538545</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-s__CAG-1427 sp900538545</t>
+          <t>7-s__CAG-1427 sp900539675</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>8-s__CAG-1427 sp900539675</t>
+          <t>8-s__CAG-1427 sp900540345</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>9-s__CAG-1427 sp900540345</t>
+          <t>9-s__CAG-1427 sp900542265</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-s__CAG-1427 sp900542265</t>
+          <t>10-s__CAG-1427 sp900542525</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11-s__CAG-1427 sp900542525</t>
+          <t>11-s__CAG-1427 sp900544455</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12-s__CAG-1427 sp900544455</t>
+          <t>12-s__CAG-1427 sp900546175</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13-s__CAG-1427 sp900546175</t>
+          <t>13-s__CAG-1427 sp900547965</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>14-s__CAG-1427 sp900547965</t>
+          <t>14-s__CAG-1427 sp900548955</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>15-s__CAG-1427 sp900548955</t>
+          <t>15-s__CAG-1427 sp900551155</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>16-s__CAG-1427 sp900551155</t>
+          <t>16-s__CAG-1427 sp900553605</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>17-s__CAG-1427 sp900553605</t>
+          <t>17-s__CAG-1427 sp900554685</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>18-s__CAG-1427 sp900554685</t>
+          <t>18-s__CAG-1427 sp900555755</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>19-s__CAG-1427 sp900555755</t>
+          <t>19-s__CAG-1427 sp900556585</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>20-s__CAG-1427 sp900556585</t>
+          <t>max</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -563,74 +558,71 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003532702569772336</v>
+        <v>1.260434973232955e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1.082452083559903e-07</v>
+        <v>1.731604301900543e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>8.366076715994536e-14</v>
+        <v>5.408587978509853e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>7.267127077393895e-07</v>
+        <v>0.1523998500879215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06346573548110783</v>
+        <v>0.007526003150727489</v>
       </c>
       <c r="G2" t="n">
-        <v>3.656492856096923e-11</v>
+        <v>0.5455553091590926</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8181494443698593</v>
+        <v>3.006425972208402e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>6.525977295754437e-06</v>
+        <v>0.02370095062837303</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02499711539667221</v>
+        <v>1.432878757281898e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>8.366076715994529e-14</v>
+        <v>0.1750986320272679</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05145803358438907</v>
+        <v>0.02046118554806061</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001438108357453444</v>
+        <v>6.340766608247871e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.36607671599453e-14</v>
+        <v>0.04657930422611594</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03990641099611648</v>
+        <v>0.001226944231970085</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0003802642788094896</v>
+        <v>6.564111698167626e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000211932096302544</v>
+        <v>0.02731974223360164</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0009266213219068348</v>
+        <v>6.158735810709821e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>3.937668952119118e-10</v>
+        <v>5.064956545535793e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.623543071055588e-11</v>
+        <v>3.452325986118631e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>8.366076715994522e-14</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.8181494443698593</v>
+        <v>0.5455553091590926</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>s__CAG-1427 sp900538545</t>
+        </is>
       </c>
       <c r="W2" t="inlineStr">
-        <is>
-          <t>s__CAG-1427 sp900538545</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
         <is>
           <t>s__CAG-1427 sp900538545</t>
         </is>
@@ -643,76 +635,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.598291911464638e-07</v>
+        <v>0.0001304941215833312</v>
       </c>
       <c r="C3" t="n">
-        <v>3.393835449834291e-06</v>
+        <v>5.187199058844815e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>1.616523469731957e-13</v>
+        <v>4.763946503617369e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>1.205034959626075e-05</v>
+        <v>0.1417722149749914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.158323548823487</v>
+        <v>0.01148437888532856</v>
       </c>
       <c r="G3" t="n">
-        <v>1.074611319674977e-06</v>
+        <v>0.1868969008581847</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3318017731741659</v>
+        <v>0.0004958099364703025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001137829177155317</v>
+        <v>0.006963319149119158</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03760569529786853</v>
+        <v>0.0008532573428408672</v>
       </c>
       <c r="K3" t="n">
-        <v>1.616523469732272e-13</v>
+        <v>0.2550356290556112</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2948614664035358</v>
+        <v>0.06075871384167562</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007091869517342046</v>
+        <v>6.216956581058578e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.616523469731957e-13</v>
+        <v>0.1933889932745887</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1581805104614402</v>
+        <v>0.04637103517291186</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006199938978474709</v>
+        <v>0.0005259702892713365</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005070451108307327</v>
+        <v>0.09531384364604345</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0007340450270299365</v>
+        <v>8.045984956584122e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>3.950480882734227e-08</v>
+        <v>3.146130525548734e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.596208299745497e-10</v>
+        <v>3.084989370655902e-07</v>
       </c>
       <c r="U3" t="n">
-        <v>1.616523469731943e-13</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.3318017731741659</v>
+        <v>0.2550356290556112</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>s__CAG-1427 sp900542525</t>
+        </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>s__CAG-1427 sp900538545</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>s__CAG-1427 sp900538545(reject)</t>
+          <t>s__CAG-1427 sp900542525</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-1427.xlsx
+++ b/outputs-HGR-r202/g__CAG-1427.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -617,6 +622,11 @@
           <t>s__CAG-1427 sp900542525</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>s__CAG-1427 sp900542525</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -689,6 +699,11 @@
           <t>s__CAG-1427 sp900538545</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>s__CAG-1427 sp900538545</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -757,6 +772,11 @@
         <v>0.2550356290556112</v>
       </c>
       <c r="V4" t="inlineStr">
+        <is>
+          <t>s__CAG-1427 sp900542525</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>s__CAG-1427 sp900542525</t>
         </is>
